--- a/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,69; 19,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,1; 18,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,6; 14,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,09; 12,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,08; 141,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,24; 103,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,64; 63,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,16; 35,5</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,19; 4,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 12,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 8,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 12,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,42; 25,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 64,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,41; 33,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 31,11</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 6,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,07; 0,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 6,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 11,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,43; 25,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,94; 2,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,46; 18,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 28,2</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,16%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 8,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 10,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 12,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 23,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 32,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 40,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 41,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,68; 54,23</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 2,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 4,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 5,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 4,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,8; 6,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,81; 12,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,14; 14,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 9,33</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 3,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 4,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 5,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 9,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 11,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 14,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 15,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 19,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>15,25%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 19,07</t>
+          <t>-4,48; 6,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 18,57</t>
+          <t>1,26; 11,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 14,35</t>
+          <t>-4,08; 7,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 12,0</t>
+          <t>1,25; 12,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 141,57</t>
+          <t>-18,44; 31,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 103,27</t>
+          <t>4,94; 58,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 63,22</t>
+          <t>-13,09; 27,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 35,5</t>
+          <t>2,67; 31,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>11,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>28,79%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 4,92</t>
+          <t>-3,04; 6,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 12,61</t>
+          <t>-8,07; 0,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 8,41</t>
+          <t>-3,71; 6,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,51</t>
+          <t>-0,52; 30,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 25,95</t>
+          <t>-10,43; 25,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 64,11</t>
+          <t>-24,94; 2,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 33,35</t>
+          <t>-9,46; 18,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 31,11</t>
+          <t>-0,84; 140,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,34%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>21,25%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 6,44</t>
+          <t>-1,92; 8,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 0,5</t>
+          <t>-0,18; 10,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 6,34</t>
+          <t>0,83; 12,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 11,83</t>
+          <t>-6,02; 33,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 25,93</t>
+          <t>-6,23; 32,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 2,1</t>
+          <t>-0,89; 40,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 18,94</t>
+          <t>2,37; 41,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 28,2</t>
+          <t>-13,35; 86,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>-5,81%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 8,8</t>
+          <t>-7,99; 2,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 10,72</t>
+          <t>-4,53; 4,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 12,63</t>
+          <t>-4,68; 5,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 23,24</t>
+          <t>-12,65; 2,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 32,83</t>
+          <t>-21,8; 6,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 40,92</t>
+          <t>-11,81; 12,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 41,24</t>
+          <t>-11,14; 14,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 54,23</t>
+          <t>-25,16; 5,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,51%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 2,13</t>
+          <t>-1,9; 3,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 4,4</t>
+          <t>-0,86; 4,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 5,24</t>
+          <t>-0,25; 5,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 4,32</t>
+          <t>0,01; 21,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 6,7</t>
+          <t>-6,44; 11,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 12,99</t>
+          <t>-2,69; 14,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 14,71</t>
+          <t>-0,69; 15,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 9,33</t>
+          <t>0,06; 63,7</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,9; 3,02</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 4,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 5,2</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 9,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 11,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 14,17</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 15,56</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 19,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,09</t>
+          <t>-3,69; 5,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,61</t>
+          <t>1,4; 11,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 7,03</t>
+          <t>-4,27; 7,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,11</t>
+          <t>1,0; 11,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 31,43</t>
+          <t>-15,73; 30,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 58,11</t>
+          <t>5,77; 58,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 27,53</t>
+          <t>-13,13; 28,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 31,92</t>
+          <t>2,51; 31,87</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 6,44</t>
+          <t>-3,11; 6,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 0,5</t>
+          <t>-8,45; 0,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 6,34</t>
+          <t>-3,99; 5,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 30,22</t>
+          <t>-0,65; 30,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 25,93</t>
+          <t>-10,2; 26,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 2,1</t>
+          <t>-25,92; 3,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 18,94</t>
+          <t>-9,75; 17,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 140,19</t>
+          <t>-1,21; 134,57</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 8,8</t>
+          <t>-1,75; 9,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 10,72</t>
+          <t>-0,33; 10,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 12,63</t>
+          <t>1,07; 13,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 33,72</t>
+          <t>-5,89; 33,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 32,83</t>
+          <t>-5,26; 36,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 40,92</t>
+          <t>-1,11; 39,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 41,24</t>
+          <t>3,32; 43,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 86,5</t>
+          <t>-12,93; 83,04</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 2,13</t>
+          <t>-7,65; 1,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 4,4</t>
+          <t>-5,09; 4,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 5,24</t>
+          <t>-4,66; 4,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 2,56</t>
+          <t>-12,58; 2,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 6,7</t>
+          <t>-21,42; 6,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 12,99</t>
+          <t>-13,32; 13,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 14,71</t>
+          <t>-11,15; 13,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 5,32</t>
+          <t>-24,65; 5,47</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,02</t>
+          <t>-1,81; 3,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,06</t>
+          <t>-0,8; 4,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,2</t>
+          <t>-0,39; 5,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 21,75</t>
+          <t>-0,11; 18,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 11,13</t>
+          <t>-6,03; 11,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 14,17</t>
+          <t>-2,65; 14,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 15,56</t>
+          <t>-1,09; 14,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 63,7</t>
+          <t>-0,2; 48,32</t>
         </is>
       </c>
     </row>
